--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441761.4155011137</v>
+        <v>-444463.0634036487</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>26.60338682606143</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>88.09081815943098</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>157.6297760725471</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>70.33683573771451</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>182.4031684223848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>43.84066561690192</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>12.84238737960263</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>13.0369954928126</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>106.9475189306795</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>114.6924368771047</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>397.8494143389641</v>
+        <v>281.2958893751469</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>11.83088445038201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151394</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>75.26944960402787</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436606</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433989</v>
+        <v>35.56536036433996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282959</v>
+        <v>30.34503645282972</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
         <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>79.83728423360076</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332422</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099037</v>
+        <v>21.09786070099051</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1157139906654</v>
+        <v>213.578236519197</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>2.009329782149914</v>
       </c>
       <c r="G11" t="n">
-        <v>24.55480961542592</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>222.0225789866469</v>
+        <v>212.4077816457244</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9398757025643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.6687625091741</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>22.65115569188777</v>
       </c>
       <c r="S19" t="n">
-        <v>180.8744396653762</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>180.1003471321685</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833829</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826188868</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444231975</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670946</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.32649042089736</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>94.80184639741275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146485</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.8104557436815</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="C2" t="n">
-        <v>533.8104557436815</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="D2" t="n">
-        <v>533.8104557436815</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271969</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348963</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>723.230240760166</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="T2" t="n">
-        <v>723.230240760166</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="U2" t="n">
-        <v>533.8104557436815</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="V2" t="n">
-        <v>533.8104557436815</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="W2" t="n">
-        <v>533.8104557436815</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="X2" t="n">
-        <v>533.8104557436815</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="Y2" t="n">
-        <v>533.8104557436815</v>
+        <v>583.2614020227605</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.0407825994337</v>
+        <v>416.4707137839696</v>
       </c>
       <c r="C3" t="n">
-        <v>212.0407825994337</v>
+        <v>416.4707137839696</v>
       </c>
       <c r="D3" t="n">
-        <v>212.0407825994337</v>
+        <v>416.4707137839696</v>
       </c>
       <c r="E3" t="n">
-        <v>212.0407825994337</v>
+        <v>416.4707137839696</v>
       </c>
       <c r="F3" t="n">
-        <v>212.0407825994337</v>
+        <v>269.9361558108545</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546596</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="U3" t="n">
-        <v>560.682563648794</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="V3" t="n">
-        <v>401.4605676159182</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="W3" t="n">
-        <v>212.0407825994337</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="X3" t="n">
-        <v>212.0407825994337</v>
+        <v>416.4707137839696</v>
       </c>
       <c r="Y3" t="n">
-        <v>212.0407825994337</v>
+        <v>416.4707137839696</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1597.614362171455</v>
+        <v>1517.800506673917</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.651845231044</v>
+        <v>1517.800506673917</v>
       </c>
       <c r="D5" t="n">
-        <v>870.3861466242934</v>
+        <v>1159.534808067167</v>
       </c>
       <c r="E5" t="n">
-        <v>870.3861466242934</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="W5" t="n">
-        <v>1984.214202235577</v>
+        <v>1562.084007297051</v>
       </c>
       <c r="X5" t="n">
-        <v>1984.214202235577</v>
+        <v>1517.800506673917</v>
       </c>
       <c r="Y5" t="n">
-        <v>1984.214202235577</v>
+        <v>1517.800506673917</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267.4604631511913</v>
+        <v>755.9255995138416</v>
       </c>
       <c r="C6" t="n">
-        <v>93.00743387006426</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="D6" t="n">
-        <v>93.00743387006426</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E6" t="n">
-        <v>93.00743387006426</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F6" t="n">
-        <v>93.00743387006426</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G6" t="n">
-        <v>80.03532540581918</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474382</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="T6" t="n">
-        <v>1400.563316948358</v>
+        <v>1400.56331694836</v>
       </c>
       <c r="U6" t="n">
-        <v>1172.461727081622</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V6" t="n">
-        <v>937.3096188498796</v>
+        <v>937.3096188498819</v>
       </c>
       <c r="W6" t="n">
-        <v>683.072262121678</v>
+        <v>937.3096188498819</v>
       </c>
       <c r="X6" t="n">
-        <v>475.2207619161452</v>
+        <v>924.1409365339096</v>
       </c>
       <c r="Y6" t="n">
-        <v>267.4604631511913</v>
+        <v>924.1409365339096</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269.4768756534347</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="C7" t="n">
-        <v>269.4768756534347</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="D7" t="n">
-        <v>269.4768756534347</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="E7" t="n">
-        <v>269.4768756534347</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F7" t="n">
-        <v>269.4768756534347</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G7" t="n">
-        <v>269.4768756534347</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H7" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="R7" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="S7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="T7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="W7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="X7" t="n">
-        <v>269.4768756534347</v>
+        <v>298.2869409356797</v>
       </c>
       <c r="Y7" t="n">
-        <v>269.4768756534347</v>
+        <v>298.2869409356797</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1279.614726253153</v>
+        <v>1453.445122733634</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.614726253153</v>
+        <v>1084.482605793222</v>
       </c>
       <c r="D8" t="n">
-        <v>921.3490276464024</v>
+        <v>726.2169071864719</v>
       </c>
       <c r="E8" t="n">
-        <v>535.5607750481581</v>
+        <v>340.4286545882276</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562752</v>
+        <v>56.29139259312971</v>
       </c>
       <c r="G8" t="n">
-        <v>121.742291422556</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="H8" t="n">
-        <v>121.742291422556</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="J8" t="n">
-        <v>156.82805594203</v>
+        <v>156.8280559420293</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002242</v>
+        <v>376.155505400223</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707939</v>
+        <v>685.1523625707919</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.64034093755</v>
+        <v>1060.640340937547</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733708</v>
+        <v>1446.817915733704</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659509</v>
+        <v>1798.139187659505</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284333</v>
+        <v>2063.482764284329</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228516</v>
+        <v>2214.571993228511</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970531</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970531</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.050212970531</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="U8" t="n">
-        <v>1963.446268866838</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="V8" t="n">
-        <v>1632.383381523267</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="W8" t="n">
-        <v>1279.614726253153</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.614726253153</v>
+        <v>1843.584454709446</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.614726253153</v>
+        <v>1453.445122733634</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>658.1378674382605</v>
+        <v>302.8299157359274</v>
       </c>
       <c r="C9" t="n">
-        <v>483.6848381571335</v>
+        <v>302.8299157359274</v>
       </c>
       <c r="D9" t="n">
-        <v>334.7504284958823</v>
+        <v>302.8299157359274</v>
       </c>
       <c r="E9" t="n">
-        <v>175.5129734904267</v>
+        <v>226.8001686611518</v>
       </c>
       <c r="F9" t="n">
-        <v>175.5129734904267</v>
+        <v>80.26561068803673</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904267</v>
+        <v>80.26561068803673</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803676</v>
+        <v>80.26561068803673</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113504</v>
+        <v>92.51967467113474</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154161</v>
+        <v>253.0195209154154</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572541</v>
+        <v>515.153912257253</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449734</v>
+        <v>840.4092510449718</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738685</v>
+        <v>1188.681775738683</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074213</v>
+        <v>1485.06330007421</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566943</v>
+        <v>1703.60253656694</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.77103225764</v>
+        <v>1799.771032257637</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285085</v>
+        <v>1769.119480285081</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058088</v>
+        <v>1630.554864058084</v>
       </c>
       <c r="T9" t="n">
-        <v>1435.93135261124</v>
+        <v>1435.931352611236</v>
       </c>
       <c r="U9" t="n">
-        <v>1435.93135261124</v>
+        <v>1207.831179666358</v>
       </c>
       <c r="V9" t="n">
-        <v>1200.779244379498</v>
+        <v>972.6790714346157</v>
       </c>
       <c r="W9" t="n">
-        <v>946.5418876512961</v>
+        <v>718.4417147064141</v>
       </c>
       <c r="X9" t="n">
-        <v>865.8981662032145</v>
+        <v>510.5902145008813</v>
       </c>
       <c r="Y9" t="n">
-        <v>658.1378674382605</v>
+        <v>302.8299157359274</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="C10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="D10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="E10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="F10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="G10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="H10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="K10" t="n">
-        <v>95.7447083801674</v>
+        <v>95.74470838016705</v>
       </c>
       <c r="L10" t="n">
-        <v>191.429549681036</v>
+        <v>191.4295496810354</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422657</v>
+        <v>295.5740818422649</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091244</v>
+        <v>405.0998157091233</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712725</v>
+        <v>485.951469271271</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139734</v>
+        <v>536.0720553139716</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.7610849089326</v>
+        <v>514.7610849089307</v>
       </c>
       <c r="R10" t="n">
-        <v>514.7610849089326</v>
+        <v>514.7610849089307</v>
       </c>
       <c r="S10" t="n">
-        <v>514.7610849089326</v>
+        <v>514.7610849089307</v>
       </c>
       <c r="T10" t="n">
-        <v>514.7610849089326</v>
+        <v>514.7610849089307</v>
       </c>
       <c r="U10" t="n">
-        <v>514.7610849089326</v>
+        <v>514.7610849089307</v>
       </c>
       <c r="V10" t="n">
-        <v>514.7610849089326</v>
+        <v>260.0765967030438</v>
       </c>
       <c r="W10" t="n">
-        <v>289.3916768375534</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="X10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.40212593953609</v>
+        <v>44.34100425941051</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1585.37427458423</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="C11" t="n">
-        <v>1216.411757643819</v>
+        <v>1116.527812193163</v>
       </c>
       <c r="D11" t="n">
-        <v>1216.411757643819</v>
+        <v>758.2621135864119</v>
       </c>
       <c r="E11" t="n">
-        <v>830.6235050455748</v>
+        <v>372.4738609881679</v>
       </c>
       <c r="F11" t="n">
-        <v>419.6376002559673</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656963</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796036</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377401</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498929</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155358</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885244</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624164</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.974114648352</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5103,37 +5103,37 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335449</v>
+        <v>84.53144813504093</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914963</v>
+        <v>503.2284887929928</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948024</v>
+        <v>1011.185054749521</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649234</v>
+        <v>1546.994364450732</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783256</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>1003.287366026812</v>
       </c>
       <c r="C13" t="n">
-        <v>925.5163587547371</v>
+        <v>834.3511830989048</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424012</v>
+        <v>684.2345436865692</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600081</v>
+        <v>536.3214501041761</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>389.4315026062657</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276104</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710544</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="U13" t="n">
-        <v>1728.355788710544</v>
+        <v>1848.27127569226</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.355788710544</v>
+        <v>1848.27127569226</v>
       </c>
       <c r="W13" t="n">
-        <v>1504.090557410901</v>
+        <v>1633.717960898599</v>
       </c>
       <c r="X13" t="n">
-        <v>1276.101006512884</v>
+        <v>1405.728410000582</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512884</v>
+        <v>1184.935830857051</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,16 +5431,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,28 +5528,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233309</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C19" t="n">
-        <v>640.106052595424</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830883</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830885</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2424.083128335928</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.26162937281</v>
+        <v>2241.228293990833</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.660164395751</v>
+        <v>2021.626829013774</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.584937739948</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.900449534061</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.483279497101</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>960.4603932171078</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535706</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
         <v>484.8112968429802</v>
@@ -5905,16 +5905,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998287</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400713</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121644</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121644</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121644</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429804</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270444</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138412</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703111</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6649,19 +6649,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y31" t="n">
         <v>753.3092412490405</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188007</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6850,19 +6850,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,22 +6871,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533435</v>
@@ -6898,10 +6898,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925705</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490404</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,46 +6926,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311991</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614388</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614388</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876689</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179087</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>404.8667159595615</v>
       </c>
       <c r="G11" t="n">
-        <v>385.91479729784</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>64.50041934994411</v>
+        <v>74.11521669086662</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.89210447937299</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>45.04089287986636</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462269</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>43.72409101823393</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1518463362683633</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890377</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.117185667820522e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,19 +24175,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>106.0841272570756</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393055</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823301</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219421</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>260.4525338942713</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.2291039219426</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>62.3554390986496</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>72.44497470121509</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194254</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.619452499</v>
       </c>
       <c r="E2" t="n">
         <v>256406.2354960387</v>
       </c>
       <c r="F2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="G2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="G2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="K2" t="n">
+        <v>282501.309891502</v>
+      </c>
+      <c r="L2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="L2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
         <v>282501.3098915021</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.244286178</v>
+        <v>392510.2442861781</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264254</v>
+        <v>12262.85603264045</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674497</v>
+        <v>395943.9567674518</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704291</v>
+        <v>189308.268770428</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854472</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487782</v>
+        <v>91259.95686487787</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949794</v>
+        <v>3074.447349949276</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931117</v>
+        <v>103409.2608931123</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.57413202344</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607419</v>
+        <v>170817.8827607423</v>
       </c>
       <c r="E4" t="n">
         <v>14721.27748222082</v>
@@ -26433,19 +26433,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26454,10 +26454,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404167</v>
+        <v>86153.75444404157</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-639514.6483140894</v>
+        <v>-639514.6483140897</v>
       </c>
       <c r="C6" t="n">
-        <v>-364547.6967784487</v>
+        <v>-364547.6967784486</v>
       </c>
       <c r="D6" t="n">
-        <v>18130.12621507302</v>
+        <v>18130.12621507472</v>
       </c>
       <c r="E6" t="n">
-        <v>-239396.4838210175</v>
+        <v>-239617.6151349944</v>
       </c>
       <c r="F6" t="n">
-        <v>-22756.18474470137</v>
+        <v>-22790.92267013599</v>
       </c>
       <c r="G6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.346100292</v>
       </c>
       <c r="H6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.346100292</v>
       </c>
       <c r="I6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.3461002918</v>
       </c>
       <c r="J6" t="n">
-        <v>117487.1392971832</v>
+        <v>117452.4013717473</v>
       </c>
       <c r="K6" t="n">
-        <v>75292.12716084982</v>
+        <v>75257.38923541398</v>
       </c>
       <c r="L6" t="n">
-        <v>163477.6366757779</v>
+        <v>163442.8987503427</v>
       </c>
       <c r="M6" t="n">
-        <v>63142.82313261597</v>
+        <v>63108.08520717968</v>
       </c>
       <c r="N6" t="n">
-        <v>116712.509893704</v>
+        <v>116677.7719682685</v>
       </c>
       <c r="O6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="P6" t="n">
-        <v>166552.0840257276</v>
+        <v>166517.3461002919</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573211</v>
+        <v>863.6234498573201</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426327</v>
+        <v>554.2625532426314</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247799</v>
+        <v>305.24072362478</v>
       </c>
       <c r="D3" t="n">
-        <v>9.91278531963701</v>
+        <v>9.912785319635304</v>
       </c>
       <c r="E3" t="n">
-        <v>338.617787357629</v>
+        <v>338.617787357631</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598436</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646955</v>
+        <v>12.1475965164675</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063763</v>
+        <v>414.9582707063782</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598436</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646955</v>
+        <v>12.1475965164675</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063761</v>
+        <v>414.9582707063782</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598436</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646955</v>
+        <v>12.1475965164675</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063763</v>
+        <v>414.9582707063782</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543628</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753918</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>132.1724263639917</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.6436733987107</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>261.150150557982</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377129</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>75.17081107687821</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459997</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>135.436149465763</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976601</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>166.8378002950282</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.8904350615671</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>122.6648464674326</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>192.7359897106649</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>39.48644371588972</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>33.84737448414053</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>9.026631402747341</v>
+        <v>125.5801563665646</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151408</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
         <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,22 +27932,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>82.37563085137307</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436609</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>125.9357009698767</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.89051046332435</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313611</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
         <v>196.8761692930955</v>
@@ -28068,13 +28068,13 @@
         <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>63.4072843459256</v>
+        <v>72.94476181739404</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-3.266293902015605e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-7.032208304403596e-13</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-7.965435133550907e-13</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J7" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753047</v>
+        <v>3.471853064753043</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940215</v>
+        <v>35.55611519940211</v>
       </c>
       <c r="I8" t="n">
-        <v>133.848615278892</v>
+        <v>133.8486152788918</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545842</v>
+        <v>294.6691890545839</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855808</v>
+        <v>441.6327292855802</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160169</v>
+        <v>547.8844525160163</v>
       </c>
       <c r="M8" t="n">
-        <v>609.627019456319</v>
+        <v>609.6270194563182</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765486</v>
+        <v>619.4914219765478</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639104</v>
+        <v>584.9681830639097</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278195</v>
+        <v>499.2568105278189</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463509</v>
+        <v>374.9210726463504</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787938</v>
+        <v>218.0887900787935</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306015</v>
+        <v>79.11485171306005</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095647</v>
+        <v>15.19803679095645</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802437</v>
+        <v>0.2777482451802434</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296879</v>
+        <v>1.857605156296877</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213039</v>
+        <v>17.94055506213037</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566011</v>
+        <v>63.95701963566004</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148732</v>
+        <v>175.502950314873</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867641</v>
+        <v>299.9624957867637</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564782</v>
+        <v>403.3365932564777</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722399</v>
+        <v>470.6747801722394</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668801</v>
+        <v>483.1321410668795</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510387</v>
+        <v>441.9715215510382</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423401</v>
+        <v>354.7211109423397</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230894</v>
+        <v>237.1216687230891</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111344</v>
+        <v>115.3344675111342</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911087</v>
+        <v>34.50420103911083</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442244</v>
+        <v>7.487452362442235</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458474</v>
+        <v>0.1222108655458472</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037792</v>
+        <v>1.55735376203779</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066329</v>
+        <v>13.84629072066327</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291834</v>
+        <v>46.83387495291829</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760719</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258453</v>
+        <v>180.936191625845</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306005</v>
+        <v>231.5360311306002</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801604</v>
+        <v>244.1222810801601</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762016</v>
+        <v>238.3175988762013</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833055</v>
+        <v>220.1248753833052</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377343</v>
+        <v>188.3548586377341</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284555</v>
+        <v>130.4071409284553</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580834</v>
+        <v>70.02428824580826</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387679</v>
+        <v>27.14042874387675</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343292</v>
+        <v>6.654147892343284</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842512</v>
+        <v>0.08494656883842502</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>144.9058654583187</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>342.5951556909311</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278979</v>
+        <v>113.6232845278976</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406002</v>
+        <v>221.5428782405997</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460297</v>
+        <v>312.118037546029</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290463</v>
+        <v>379.2807862290455</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799577</v>
+        <v>390.0783583799569</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422236</v>
+        <v>354.8699716422229</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725499</v>
+        <v>268.0238147725494</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719014</v>
+        <v>152.6153827719009</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661654</v>
+        <v>2.503252264661398</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820648</v>
+        <v>48.66532364820628</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124051</v>
+        <v>162.1210568124047</v>
       </c>
       <c r="L9" t="n">
-        <v>264.782213476604</v>
+        <v>264.7822134766035</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502216</v>
+        <v>328.5407462502211</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835468</v>
+        <v>351.7904289835462</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065942</v>
+        <v>299.3752771065937</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280098</v>
+        <v>220.7467035280094</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1398946370679</v>
+        <v>97.13989463706761</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530987</v>
+        <v>51.92293345530965</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936221</v>
+        <v>96.65135484936195</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325554</v>
+        <v>105.1964971325551</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109684</v>
+        <v>110.6320544109681</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146268</v>
+        <v>81.66833693146239</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858672</v>
+        <v>50.6268545885865</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>7.064426483959761</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>199.9989112464866</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899053</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
